--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -502,8 +502,47 @@
           <t>shollinganallur</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Personal</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Transport</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>bus ticket</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>80</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Cash</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>shollinganallur</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>bus travle</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
